--- a/biology/Botanique/Mohnnudel/Mohnnudel.xlsx
+++ b/biology/Botanique/Mohnnudel/Mohnnudel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Mohnnudeln (« nouilles au pavot » en allemand) sont une spécialité de la cuisine de Bohême et d'Autriche.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des sortes de nouilles épaisses faites à partir d'une pâte de pomme de terre, similaires aux Schupfnudeln.
 La principale différence est que les Mohnnudeln sont servies avec du beurre fondu et des graines de pavot moulues, qui donnent au plat sa couleur noire caractéristique, puis saupoudrées de sucre glace.
